--- a/Clientes.xlsx
+++ b/Clientes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shirley\Documents\Cursos Engenharia\Digital Pets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Gitportalpet\portalpet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,9 +34,6 @@
     <t>Número de Telefone</t>
   </si>
   <si>
-    <t>CLIENTE</t>
-  </si>
-  <si>
     <t>Endereço</t>
   </si>
   <si>
@@ -104,6 +101,9 @@
   </si>
   <si>
     <t>(31) 3285-5554</t>
+  </si>
+  <si>
+    <t>CLIENTES</t>
   </si>
 </sst>
 </file>
@@ -112,7 +112,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_)@"/>
-    <numFmt numFmtId="166" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
+    <numFmt numFmtId="165" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -236,9 +236,6 @@
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -261,7 +258,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -275,6 +272,9 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -304,34 +304,17 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="_)@"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="1" tint="0.24994659260841701"/>
         </left>
         <right/>
         <top/>
         <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="5"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -367,17 +350,34 @@
         <name val="Arial"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="165" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="5"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="164" formatCode="_)@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="1" tint="0.24994659260841701"/>
         </left>
         <right/>
         <top/>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -541,10 +541,10 @@
   <tableColumns count="6">
     <tableColumn id="1" name="Código do Cliente" dataDxfId="5"/>
     <tableColumn id="2" name="Nome da Empresa" dataDxfId="4"/>
-    <tableColumn id="4" name="Endereço" dataDxfId="0"/>
-    <tableColumn id="10" name="Número de Telefone" dataDxfId="1"/>
-    <tableColumn id="12" name="Email" dataDxfId="2"/>
-    <tableColumn id="13" name="Nicho" dataDxfId="3"/>
+    <tableColumn id="4" name="Endereço" dataDxfId="3"/>
+    <tableColumn id="10" name="Número de Telefone" dataDxfId="2"/>
+    <tableColumn id="12" name="Email" dataDxfId="1"/>
+    <tableColumn id="13" name="Nicho" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Customer Contact List" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -783,8 +783,8 @@
   </sheetPr>
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1"/>
@@ -810,8 +810,8 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="36.75" customHeight="1">
-      <c r="B3" s="2" t="s">
-        <v>3</v>
+      <c r="E3" s="17" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="7.5" customHeight="1">
@@ -825,293 +825,293 @@
     </row>
     <row r="5" spans="1:8" ht="12" customHeight="1"/>
     <row r="6" spans="1:8" ht="17.25" customHeight="1">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="4" t="s">
+    </row>
+    <row r="7" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A7" s="4"/>
+      <c r="B7" s="8">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17.25" customHeight="1">
+      <c r="B8" s="8">
         <v>2</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="4" t="s">
+      <c r="C8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17.25" customHeight="1">
+      <c r="B9" s="8">
+        <v>3</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17.25" customHeight="1">
+      <c r="B10" s="8">
+        <v>4</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17.25" customHeight="1">
+      <c r="B11" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A7" s="5"/>
-      <c r="B7" s="9">
-        <v>1</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="17.25" customHeight="1">
-      <c r="B8" s="9">
-        <v>2</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="17.25" customHeight="1">
-      <c r="B9" s="9">
-        <v>3</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="17.25" customHeight="1">
-      <c r="B10" s="9">
-        <v>4</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="13" t="s">
+      <c r="C11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="17.25" customHeight="1">
-      <c r="B11" s="9">
-        <v>5</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="7" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="12" spans="1:8" ht="17.25" customHeight="1">
-      <c r="B12" s="10"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="7"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:8" ht="17.25" customHeight="1">
-      <c r="B13" s="10"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="7"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:8" ht="17.25" customHeight="1">
-      <c r="B14" s="10"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="7"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:8" ht="17.25" customHeight="1">
-      <c r="B15" s="10"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="7"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:8" ht="17.25" customHeight="1">
-      <c r="B16" s="10"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="7"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="6"/>
     </row>
     <row r="17" spans="2:7" ht="17.25" customHeight="1">
-      <c r="B17" s="10"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="7"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="6"/>
     </row>
     <row r="18" spans="2:7" ht="17.25" customHeight="1">
-      <c r="B18" s="10"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="7"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="6"/>
     </row>
     <row r="19" spans="2:7" ht="17.25" customHeight="1">
-      <c r="B19" s="10"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="7"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="6"/>
     </row>
     <row r="20" spans="2:7" ht="17.25" customHeight="1">
-      <c r="B20" s="10"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="7"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="6"/>
     </row>
     <row r="21" spans="2:7" ht="17.25" customHeight="1">
-      <c r="B21" s="10"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="7"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="6"/>
     </row>
     <row r="22" spans="2:7" ht="17.25" customHeight="1">
-      <c r="B22" s="10"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="7"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="6"/>
     </row>
     <row r="23" spans="2:7" ht="17.25" customHeight="1">
-      <c r="B23" s="10"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="7"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="6"/>
     </row>
     <row r="24" spans="2:7" ht="17.25" customHeight="1">
-      <c r="B24" s="10"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="7"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="6"/>
     </row>
     <row r="25" spans="2:7" ht="17.25" customHeight="1">
-      <c r="B25" s="10"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="7"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="6"/>
     </row>
     <row r="26" spans="2:7" ht="17.25" customHeight="1">
-      <c r="B26" s="10"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="7"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="6"/>
     </row>
     <row r="27" spans="2:7" ht="17.25" customHeight="1">
-      <c r="B27" s="10"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="7"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="6"/>
     </row>
     <row r="28" spans="2:7" ht="17.25" customHeight="1">
-      <c r="B28" s="10"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="7"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="6"/>
     </row>
     <row r="29" spans="2:7" ht="17.25" customHeight="1">
-      <c r="B29" s="10"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="7"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="6"/>
     </row>
     <row r="30" spans="2:7" ht="17.25" customHeight="1">
-      <c r="B30" s="10"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="7"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="6"/>
     </row>
     <row r="31" spans="2:7" ht="17.25" customHeight="1">
-      <c r="B31" s="10"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="7"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="6"/>
     </row>
     <row r="32" spans="2:7" ht="17.25" customHeight="1">
-      <c r="B32" s="10"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="7"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="6"/>
     </row>
     <row r="33" spans="2:7" ht="17.25" customHeight="1">
-      <c r="B33" s="10"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="7"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Clientes.xlsx
+++ b/Clientes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Gitportalpet\portalpet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITHUB PORTALPET\portalpet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,6 +34,9 @@
     <t>Número de Telefone</t>
   </si>
   <si>
+    <t>CLIENTE</t>
+  </si>
+  <si>
     <t>Endereço</t>
   </si>
   <si>
@@ -101,9 +104,6 @@
   </si>
   <si>
     <t>(31) 3285-5554</t>
-  </si>
-  <si>
-    <t>CLIENTES</t>
   </si>
 </sst>
 </file>
@@ -112,7 +112,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_)@"/>
-    <numFmt numFmtId="165" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
+    <numFmt numFmtId="166" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -206,7 +206,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -223,6 +223,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -236,6 +251,9 @@
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -243,39 +261,36 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="6" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Hiperlink" xfId="2" builtinId="8" hidden="1" customBuiltin="1"/>
@@ -307,77 +322,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
-          <color theme="1" tint="0.24994659260841701"/>
+          <color indexed="64"/>
         </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="5"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_)@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="5"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="5"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_)@"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="1" tint="0.24994659260841701"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -399,13 +360,23 @@
       <numFmt numFmtId="164" formatCode="_)@"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
-          <color theme="1" tint="0.24994659260841701"/>
+          <color indexed="64"/>
         </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -424,7 +395,144 @@
         <name val="Arial"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_)@"/>
+      <numFmt numFmtId="166" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="5"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="5"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="5"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <border outline="0">
@@ -784,7 +892,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1"/>
@@ -810,8 +918,8 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="36.75" customHeight="1">
-      <c r="E3" s="17" t="s">
-        <v>26</v>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="7.5" customHeight="1">
@@ -825,293 +933,293 @@
     </row>
     <row r="5" spans="1:8" ht="12" customHeight="1"/>
     <row r="6" spans="1:8" ht="17.25" customHeight="1">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17.25" customHeight="1">
+      <c r="B8" s="6">
+        <v>2</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17.25" customHeight="1">
+      <c r="B9" s="6">
         <v>3</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="C9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17.25" customHeight="1">
+      <c r="B10" s="6">
+        <v>4</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17.25" customHeight="1">
+      <c r="B11" s="6">
         <v>5</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="8">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="17.25" customHeight="1">
-      <c r="B8" s="8">
-        <v>2</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="17.25" customHeight="1">
-      <c r="B9" s="8">
-        <v>3</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="17.25" customHeight="1">
-      <c r="B10" s="8">
-        <v>4</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="17.25" customHeight="1">
-      <c r="B11" s="8">
-        <v>5</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="6" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="12" spans="1:8" ht="17.25" customHeight="1">
-      <c r="B12" s="9"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:8" ht="17.25" customHeight="1">
-      <c r="B13" s="9"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:8" ht="17.25" customHeight="1">
-      <c r="B14" s="9"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:8" ht="17.25" customHeight="1">
-      <c r="B15" s="9"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:8" ht="17.25" customHeight="1">
-      <c r="B16" s="9"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="11"/>
     </row>
     <row r="17" spans="2:7" ht="17.25" customHeight="1">
-      <c r="B17" s="9"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="11"/>
     </row>
     <row r="18" spans="2:7" ht="17.25" customHeight="1">
-      <c r="B18" s="9"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="11"/>
     </row>
     <row r="19" spans="2:7" ht="17.25" customHeight="1">
-      <c r="B19" s="9"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="11"/>
     </row>
     <row r="20" spans="2:7" ht="17.25" customHeight="1">
-      <c r="B20" s="9"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="11"/>
     </row>
     <row r="21" spans="2:7" ht="17.25" customHeight="1">
-      <c r="B21" s="9"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="11"/>
     </row>
     <row r="22" spans="2:7" ht="17.25" customHeight="1">
-      <c r="B22" s="9"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="11"/>
     </row>
     <row r="23" spans="2:7" ht="17.25" customHeight="1">
-      <c r="B23" s="9"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="11"/>
     </row>
     <row r="24" spans="2:7" ht="17.25" customHeight="1">
-      <c r="B24" s="9"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="11"/>
     </row>
     <row r="25" spans="2:7" ht="17.25" customHeight="1">
-      <c r="B25" s="9"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="11"/>
     </row>
     <row r="26" spans="2:7" ht="17.25" customHeight="1">
-      <c r="B26" s="9"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="11"/>
     </row>
     <row r="27" spans="2:7" ht="17.25" customHeight="1">
-      <c r="B27" s="9"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="11"/>
     </row>
     <row r="28" spans="2:7" ht="17.25" customHeight="1">
-      <c r="B28" s="9"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="11"/>
     </row>
     <row r="29" spans="2:7" ht="17.25" customHeight="1">
-      <c r="B29" s="9"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="11"/>
     </row>
     <row r="30" spans="2:7" ht="17.25" customHeight="1">
-      <c r="B30" s="9"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="11"/>
     </row>
     <row r="31" spans="2:7" ht="17.25" customHeight="1">
-      <c r="B31" s="9"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="11"/>
     </row>
     <row r="32" spans="2:7" ht="17.25" customHeight="1">
-      <c r="B32" s="9"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="11"/>
     </row>
     <row r="33" spans="2:7" ht="17.25" customHeight="1">
-      <c r="B33" s="9"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Clientes.xlsx
+++ b/Clientes.xlsx
@@ -112,7 +112,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_)@"/>
-    <numFmt numFmtId="166" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
+    <numFmt numFmtId="165" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -270,7 +270,7 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -280,13 +280,13 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="6" applyBorder="1"/>
@@ -395,7 +395,7 @@
         <name val="Arial"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
+      <numFmt numFmtId="165" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -892,23 +892,23 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.140625" customWidth="1"/>
-    <col min="7" max="7" width="39.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="12" customHeight="1"/>
-    <row r="2" spans="1:8" ht="8.25" customHeight="1">
+    <row r="1" spans="1:8" ht="12.75"/>
+    <row r="2" spans="1:8" ht="12.75">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -917,12 +917,12 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="36.75" customHeight="1">
+    <row r="3" spans="1:8" ht="26.25">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="7.5" customHeight="1">
+    <row r="4" spans="1:8" ht="12.75">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -931,8 +931,8 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="12" customHeight="1"/>
-    <row r="6" spans="1:8" ht="17.25" customHeight="1">
+    <row r="5" spans="1:8" ht="12.75"/>
+    <row r="6" spans="1:8" ht="14.25">
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
@@ -952,7 +952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="17.25" customHeight="1">
+    <row r="7" spans="1:8" ht="14.25">
       <c r="A7" s="5"/>
       <c r="B7" s="6">
         <v>1</v>
@@ -971,7 +971,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17.25" customHeight="1">
+    <row r="8" spans="1:8" ht="14.25">
       <c r="B8" s="6">
         <v>2</v>
       </c>
@@ -989,7 +989,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="17.25" customHeight="1">
+    <row r="9" spans="1:8" ht="14.25">
       <c r="B9" s="6">
         <v>3</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17.25" customHeight="1">
+    <row r="10" spans="1:8" ht="12.75">
       <c r="B10" s="6">
         <v>4</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17.25" customHeight="1">
+    <row r="11" spans="1:8" ht="12.75">
       <c r="B11" s="6">
         <v>5</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="17.25" customHeight="1">
+    <row r="12" spans="1:8" ht="12.75">
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
       <c r="D12" s="8"/>
@@ -1053,7 +1053,7 @@
       <c r="F12" s="17"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" spans="1:8" ht="17.25" customHeight="1">
+    <row r="13" spans="1:8" ht="12.75">
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
@@ -1061,7 +1061,7 @@
       <c r="F13" s="17"/>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" spans="1:8" ht="17.25" customHeight="1">
+    <row r="14" spans="1:8" ht="12.75">
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
       <c r="D14" s="8"/>
@@ -1069,7 +1069,7 @@
       <c r="F14" s="17"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" spans="1:8" ht="17.25" customHeight="1">
+    <row r="15" spans="1:8" ht="12.75">
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
       <c r="D15" s="8"/>
@@ -1077,7 +1077,7 @@
       <c r="F15" s="17"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" spans="1:8" ht="17.25" customHeight="1">
+    <row r="16" spans="1:8" ht="12.75">
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
       <c r="D16" s="8"/>
@@ -1085,7 +1085,7 @@
       <c r="F16" s="17"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" spans="2:7" ht="17.25" customHeight="1">
+    <row r="17" spans="2:7" ht="12.75">
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
       <c r="D17" s="8"/>
@@ -1093,7 +1093,7 @@
       <c r="F17" s="17"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" spans="2:7" ht="17.25" customHeight="1">
+    <row r="18" spans="2:7" ht="12.75">
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
       <c r="D18" s="8"/>
@@ -1101,7 +1101,7 @@
       <c r="F18" s="17"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" spans="2:7" ht="17.25" customHeight="1">
+    <row r="19" spans="2:7" ht="12.75">
       <c r="B19" s="6"/>
       <c r="C19" s="7"/>
       <c r="D19" s="8"/>
@@ -1109,7 +1109,7 @@
       <c r="F19" s="17"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" spans="2:7" ht="17.25" customHeight="1">
+    <row r="20" spans="2:7" ht="12.75">
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
       <c r="D20" s="8"/>
@@ -1117,7 +1117,7 @@
       <c r="F20" s="17"/>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" spans="2:7" ht="17.25" customHeight="1">
+    <row r="21" spans="2:7" ht="12.75">
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
       <c r="D21" s="8"/>
@@ -1125,7 +1125,7 @@
       <c r="F21" s="17"/>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" spans="2:7" ht="17.25" customHeight="1">
+    <row r="22" spans="2:7" ht="12.75">
       <c r="B22" s="6"/>
       <c r="C22" s="7"/>
       <c r="D22" s="8"/>
@@ -1133,7 +1133,7 @@
       <c r="F22" s="17"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" spans="2:7" ht="17.25" customHeight="1">
+    <row r="23" spans="2:7" ht="12.75">
       <c r="B23" s="6"/>
       <c r="C23" s="7"/>
       <c r="D23" s="8"/>
@@ -1141,7 +1141,7 @@
       <c r="F23" s="17"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" spans="2:7" ht="17.25" customHeight="1">
+    <row r="24" spans="2:7" ht="12.75">
       <c r="B24" s="6"/>
       <c r="C24" s="7"/>
       <c r="D24" s="8"/>
@@ -1149,7 +1149,7 @@
       <c r="F24" s="17"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" spans="2:7" ht="17.25" customHeight="1">
+    <row r="25" spans="2:7" ht="12.75">
       <c r="B25" s="6"/>
       <c r="C25" s="7"/>
       <c r="D25" s="8"/>
@@ -1157,7 +1157,7 @@
       <c r="F25" s="17"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" spans="2:7" ht="17.25" customHeight="1">
+    <row r="26" spans="2:7" ht="12.75">
       <c r="B26" s="6"/>
       <c r="C26" s="7"/>
       <c r="D26" s="8"/>
@@ -1165,7 +1165,7 @@
       <c r="F26" s="17"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" spans="2:7" ht="17.25" customHeight="1">
+    <row r="27" spans="2:7" ht="12.75">
       <c r="B27" s="6"/>
       <c r="C27" s="7"/>
       <c r="D27" s="8"/>
@@ -1173,7 +1173,7 @@
       <c r="F27" s="17"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" spans="2:7" ht="17.25" customHeight="1">
+    <row r="28" spans="2:7" ht="12.75">
       <c r="B28" s="6"/>
       <c r="C28" s="7"/>
       <c r="D28" s="8"/>
@@ -1181,7 +1181,7 @@
       <c r="F28" s="17"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" spans="2:7" ht="17.25" customHeight="1">
+    <row r="29" spans="2:7" ht="12.75">
       <c r="B29" s="6"/>
       <c r="C29" s="7"/>
       <c r="D29" s="8"/>
@@ -1189,7 +1189,7 @@
       <c r="F29" s="17"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" spans="2:7" ht="17.25" customHeight="1">
+    <row r="30" spans="2:7" ht="12.75">
       <c r="B30" s="6"/>
       <c r="C30" s="7"/>
       <c r="D30" s="8"/>
@@ -1197,7 +1197,7 @@
       <c r="F30" s="17"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" spans="2:7" ht="17.25" customHeight="1">
+    <row r="31" spans="2:7" ht="12.75">
       <c r="B31" s="6"/>
       <c r="C31" s="7"/>
       <c r="D31" s="8"/>
@@ -1205,7 +1205,7 @@
       <c r="F31" s="17"/>
       <c r="G31" s="11"/>
     </row>
-    <row r="32" spans="2:7" ht="17.25" customHeight="1">
+    <row r="32" spans="2:7" ht="12.75">
       <c r="B32" s="6"/>
       <c r="C32" s="7"/>
       <c r="D32" s="8"/>
@@ -1213,7 +1213,7 @@
       <c r="F32" s="17"/>
       <c r="G32" s="11"/>
     </row>
-    <row r="33" spans="2:7" ht="17.25" customHeight="1">
+    <row r="33" spans="2:7" ht="12.75">
       <c r="B33" s="6"/>
       <c r="C33" s="7"/>
       <c r="D33" s="8"/>

--- a/Clientes.xlsx
+++ b/Clientes.xlsx
@@ -12,18 +12,19 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
   </bookViews>
   <sheets>
-    <sheet name="Clientes Belo Horizonte" sheetId="1" r:id="rId1"/>
+    <sheet name="Clientes Belo Horizonte Online" sheetId="1" r:id="rId1"/>
+    <sheet name="Clientes Belo Horizonte Offline" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="Imprimir_Títulos" localSheetId="0">'Clientes Belo Horizonte'!$6:$6</definedName>
-    <definedName name="lstCustomers">'Clientes Belo Horizonte'!$C$7:$C$33</definedName>
+    <definedName name="Imprimir_Títulos" localSheetId="0">'Clientes Belo Horizonte Online'!$5:$5</definedName>
+    <definedName name="lstCustomers">'Clientes Belo Horizonte Online'!$B$6:$B$50</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="116">
   <si>
     <t>Código do Cliente</t>
   </si>
@@ -49,9 +50,6 @@
     <t>(31) 9826-8141</t>
   </si>
   <si>
-    <t>Apenas Cachorro</t>
-  </si>
-  <si>
     <t>Animais do Coração</t>
   </si>
   <si>
@@ -104,6 +102,276 @@
   </si>
   <si>
     <t>(31) 3285-5554</t>
+  </si>
+  <si>
+    <t>Meek Pet</t>
+  </si>
+  <si>
+    <t>(31) 3786-5680</t>
+  </si>
+  <si>
+    <t>R. dos Inconfidentes, 657 - Funcionários</t>
+  </si>
+  <si>
+    <t>Av. João Paulo I, 1006 - Alípio de Melo</t>
+  </si>
+  <si>
+    <t>Amigo Fiel</t>
+  </si>
+  <si>
+    <t>(31) 3418-0650</t>
+  </si>
+  <si>
+    <t>Primo Pet</t>
+  </si>
+  <si>
+    <t>(31) 3140-4410</t>
+  </si>
+  <si>
+    <t>Imperio da Ração</t>
+  </si>
+  <si>
+    <t>Av. Presidente Tancredo Neves, 3810 - Castelo</t>
+  </si>
+  <si>
+    <t>R. Maria Ferreira da Silva, 376 - Fernão Dias</t>
+  </si>
+  <si>
+    <t>(31) 3498-3044</t>
+  </si>
+  <si>
+    <t>faleconosco@imperiodaracao.com.br</t>
+  </si>
+  <si>
+    <t>Av. Dr. Cristiano Guimarães, 1489 - Planalto</t>
+  </si>
+  <si>
+    <t>(31) 3495-4433</t>
+  </si>
+  <si>
+    <t>Império da Ração</t>
+  </si>
+  <si>
+    <t>Rodovia MG 30, 876 Loja 2 - Pau Pombo</t>
+  </si>
+  <si>
+    <t>(31) 3581-7222</t>
+  </si>
+  <si>
+    <t>Filhotes Online BH</t>
+  </si>
+  <si>
+    <t>R. Gama Cerqueira, 336 - Nova Suiça</t>
+  </si>
+  <si>
+    <t>(31) 3342-4024</t>
+  </si>
+  <si>
+    <t>filhotes@filhotesonlinebh.com.br</t>
+  </si>
+  <si>
+    <t>Cães, Gatos, Roedores e Insetos</t>
+  </si>
+  <si>
+    <t>Arca de Noe Bh</t>
+  </si>
+  <si>
+    <t>R. Desembargador Barcelos, 970 - Nova Suiça</t>
+  </si>
+  <si>
+    <t>(31) 2535-1399</t>
+  </si>
+  <si>
+    <t>contato@arcadenoebh.com.br</t>
+  </si>
+  <si>
+    <t>Pet Cães e Cia</t>
+  </si>
+  <si>
+    <t>Av. Santa Terezinha, 380 Loja 1,2 e 3 - Santa Terezinha</t>
+  </si>
+  <si>
+    <t>(31) 3475-2915</t>
+  </si>
+  <si>
+    <t>Av. Conceição do Mato Dentro, 295 Loja 1 - Ouro Preto</t>
+  </si>
+  <si>
+    <t>(31) 3441-1516</t>
+  </si>
+  <si>
+    <t>Av. Américo Vespúcio, 600 Loja 2 - Aparecida</t>
+  </si>
+  <si>
+    <t>(31) 3428-6567</t>
+  </si>
+  <si>
+    <t>Cães, Gatos, Roedores, Répteis, Peixes e Pássaros</t>
+  </si>
+  <si>
+    <t>Pet Life Bh</t>
+  </si>
+  <si>
+    <t>R. Gilson Bretas, 252 - Dona Clara</t>
+  </si>
+  <si>
+    <t>(31) 3497-0567</t>
+  </si>
+  <si>
+    <t>contato@petlifebh.com.br</t>
+  </si>
+  <si>
+    <t>contato@pointdog.com.br</t>
+  </si>
+  <si>
+    <t>Point Dog</t>
+  </si>
+  <si>
+    <t>R. Nancy Vasconselos Gomes, 336 - Horto</t>
+  </si>
+  <si>
+    <t>(31) 3468-3299</t>
+  </si>
+  <si>
+    <t>Cães</t>
+  </si>
+  <si>
+    <t>contato@bomgarotopetshop.com.br</t>
+  </si>
+  <si>
+    <t>Bom Garoto</t>
+  </si>
+  <si>
+    <t>R. General Andrade Neves, 135 - Gutierrez</t>
+  </si>
+  <si>
+    <t>(31) 3332-6721</t>
+  </si>
+  <si>
+    <t>Veterinária Anchieta</t>
+  </si>
+  <si>
+    <t>R. Albita, 751 - Cruzeiro</t>
+  </si>
+  <si>
+    <t>(31) 3282-1873</t>
+  </si>
+  <si>
+    <t>vet.anchieta@gmail.com</t>
+  </si>
+  <si>
+    <t>Av. Presidente Tancredo Neves, 2325 Loja 05 - Castelo</t>
+  </si>
+  <si>
+    <t>(31) 3476-7943</t>
+  </si>
+  <si>
+    <t>centerpet@veterinariacenterpet.com.br</t>
+  </si>
+  <si>
+    <t>Veterinária Center Pet</t>
+  </si>
+  <si>
+    <t>Cãobeleireiro</t>
+  </si>
+  <si>
+    <t>R. Alves do Vale, 55 - Luxemburgo</t>
+  </si>
+  <si>
+    <t>(31) 3344-3860</t>
+  </si>
+  <si>
+    <t>Zen Animal Pet Shop</t>
+  </si>
+  <si>
+    <t>Av. Santa Rosa, 310 - São Luiz</t>
+  </si>
+  <si>
+    <t>(31) 3443-3008</t>
+  </si>
+  <si>
+    <t>R. Desembargador Paula Mota, 47 - Ouro Preto</t>
+  </si>
+  <si>
+    <t>(31) 3498-6240</t>
+  </si>
+  <si>
+    <t>Cães e Gatos Clinica Veterinária</t>
+  </si>
+  <si>
+    <t>R. Outono, 276 - Carmo Sion</t>
+  </si>
+  <si>
+    <t>(31) 3223-4938</t>
+  </si>
+  <si>
+    <t>Pet Shop Goiania</t>
+  </si>
+  <si>
+    <t>Rodovia MG 005, 837 - Goiania</t>
+  </si>
+  <si>
+    <t>(31) 3486-4744</t>
+  </si>
+  <si>
+    <t>Inova Pet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R. São Gonçalo, 976 - Nova Floresta </t>
+  </si>
+  <si>
+    <t>(31) 3423-6715</t>
+  </si>
+  <si>
+    <t>Cães, Gatos e Pássaros</t>
+  </si>
+  <si>
+    <t>Dog Dog &amp; Cat Cat</t>
+  </si>
+  <si>
+    <t>R. Joaquim Linhares, 193 - Anchieta</t>
+  </si>
+  <si>
+    <t>(31) 2536-6060</t>
+  </si>
+  <si>
+    <t>contato@dogdogcatcat.com.br</t>
+  </si>
+  <si>
+    <t>Av. Brasil, 112 - Santa Efigênia</t>
+  </si>
+  <si>
+    <t>(31) 3241-3051</t>
+  </si>
+  <si>
+    <t>Loja Pet.com</t>
+  </si>
+  <si>
+    <t>contato@lojapetcom.com.br</t>
+  </si>
+  <si>
+    <t>Cães, Gatos, Roedores e Pássaros</t>
+  </si>
+  <si>
+    <t>R. Venezuela, 654 Loja 3 - Sion</t>
+  </si>
+  <si>
+    <t>(31) 3047-4474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Av. Professor Mário Werneck, 2150 - Buritis </t>
+  </si>
+  <si>
+    <t>(31) 3415-7273</t>
+  </si>
+  <si>
+    <t>Av. Bernardo Monteiro, 1441 - Funcionários</t>
+  </si>
+  <si>
+    <t>(31) 3224-8525</t>
+  </si>
+  <si>
+    <t>Cachorro e Pássaros</t>
   </si>
 </sst>
 </file>
@@ -114,7 +382,7 @@
     <numFmt numFmtId="164" formatCode="_)@"/>
     <numFmt numFmtId="165" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -162,13 +430,21 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF002060"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF002060"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -176,14 +452,10 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF002060"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Inherit"/>
     </font>
   </fonts>
   <fills count="4">
@@ -248,7 +520,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -260,21 +532,11 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -283,14 +545,13 @@
     <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="6" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Hiperlink" xfId="2" builtinId="8" hidden="1" customBuiltin="1"/>
@@ -301,7 +562,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
     <dxf>
       <font>
         <b val="0"/>
@@ -314,13 +575,12 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
-        <color theme="5"/>
+        <color rgb="FF002060"/>
         <name val="Arial"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="_)@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -333,12 +593,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -353,12 +607,13 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
-        <color theme="5"/>
+        <color auto="1"/>
         <name val="Arial"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="_)@"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -371,12 +626,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -391,13 +640,13 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
-        <color theme="5"/>
+        <color auto="1"/>
         <name val="Arial"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="165" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -410,12 +659,51 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -430,13 +718,13 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
-        <color theme="5"/>
+        <color auto="1"/>
         <name val="Arial"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -449,12 +737,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -469,51 +751,12 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
-        <color theme="5"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="5"/>
+        <color auto="1"/>
         <name val="Arial"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -526,12 +769,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -626,10 +863,10 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Customer Contact List" defaultPivotStyle="PivotStyleLight2">
     <tableStyle name="Customer Contact List" pivot="0" count="4">
-      <tableStyleElement type="wholeTable" dxfId="11"/>
-      <tableStyleElement type="headerRow" dxfId="10"/>
-      <tableStyleElement type="firstRowStripe" dxfId="9"/>
-      <tableStyleElement type="secondRowStripe" dxfId="8"/>
+      <tableStyleElement type="wholeTable" dxfId="12"/>
+      <tableStyleElement type="headerRow" dxfId="11"/>
+      <tableStyleElement type="firstRowStripe" dxfId="10"/>
+      <tableStyleElement type="secondRowStripe" dxfId="9"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -644,15 +881,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="tblCustomerContacts" displayName="tblCustomerContacts" ref="B6:G33" totalsRowShown="0" headerRowDxfId="7" tableBorderDxfId="6">
-  <autoFilter ref="B6:G33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="tblCustomerContacts" displayName="tblCustomerContacts" ref="A5:F50" totalsRowShown="0" headerRowDxfId="8" dataDxfId="3" tableBorderDxfId="7">
+  <autoFilter ref="A5:F50"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Código do Cliente" dataDxfId="5"/>
-    <tableColumn id="2" name="Nome da Empresa" dataDxfId="4"/>
-    <tableColumn id="4" name="Endereço" dataDxfId="3"/>
+    <tableColumn id="1" name="Código do Cliente" dataDxfId="6"/>
+    <tableColumn id="2" name="Nome da Empresa" dataDxfId="5"/>
+    <tableColumn id="4" name="Endereço" dataDxfId="4"/>
     <tableColumn id="10" name="Número de Telefone" dataDxfId="2"/>
-    <tableColumn id="12" name="Email" dataDxfId="1"/>
-    <tableColumn id="13" name="Nicho" dataDxfId="0"/>
+    <tableColumn id="12" name="Email" dataDxfId="0"/>
+    <tableColumn id="13" name="Nicho" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="Customer Contact List" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -889,350 +1126,915 @@
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:G156"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" customWidth="1"/>
+    <col min="3" max="3" width="58.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.28515625" customWidth="1"/>
+    <col min="6" max="6" width="51.85546875" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="12.75"/>
-    <row r="2" spans="1:8" ht="12.75">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" ht="26.25">
-      <c r="B3" s="2" t="s">
+    <row r="1" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" ht="26.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" ht="12.75"/>
-    <row r="6" spans="1:8" ht="14.25">
-      <c r="B6" s="3" t="s">
+    <row r="3" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6">
+    <row r="6" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="B6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>2</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>3</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>4</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="C9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>5</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>6</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>7</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>8</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>9</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
         <v>10</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="14.25">
-      <c r="B8" s="6">
-        <v>2</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="12" t="s">
+      <c r="B15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
+        <v>11</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
+        <v>12</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>13</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>14</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>15</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
+        <v>16</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="13"/>
+      <c r="F21" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
+        <v>17</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="6">
+        <v>18</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="6">
+        <v>19</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="14.25">
-      <c r="B9" s="6">
-        <v>3</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="15" t="s">
+      <c r="B25" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="F9" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="12.75">
-      <c r="B10" s="6">
-        <v>4</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="9" t="s">
+      <c r="B26" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="11" t="s">
+    </row>
+    <row r="27" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="6">
+        <v>22</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" s="13"/>
+      <c r="F27" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="6">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="12.75">
-      <c r="B11" s="6">
-        <v>5</v>
-      </c>
-      <c r="C11" s="7" t="s">
+      <c r="B28" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" s="13"/>
+      <c r="F28" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="6">
         <v>24</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="B29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" s="13"/>
+      <c r="F29" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="6">
         <v>25</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="B30" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" s="13"/>
+      <c r="F30" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="6">
         <v>26</v>
       </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="11" t="s">
+      <c r="B31" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E31" s="13"/>
+      <c r="F31" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="6">
+        <v>27</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32" s="13"/>
+      <c r="F32" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="6">
+        <v>28</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="6">
+        <v>29</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="6">
+        <v>30</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E35" s="13"/>
+      <c r="F35" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="6">
+        <v>31</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="12.75">
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="11"/>
-    </row>
-    <row r="13" spans="1:8" ht="12.75">
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="11"/>
-    </row>
-    <row r="14" spans="1:8" ht="12.75">
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="11"/>
-    </row>
-    <row r="15" spans="1:8" ht="12.75">
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="11"/>
-    </row>
-    <row r="16" spans="1:8" ht="12.75">
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" spans="2:7" ht="12.75">
-      <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="11"/>
-    </row>
-    <row r="18" spans="2:7" ht="12.75">
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="11"/>
-    </row>
-    <row r="19" spans="2:7" ht="12.75">
-      <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="11"/>
-    </row>
-    <row r="20" spans="2:7" ht="12.75">
-      <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="11"/>
-    </row>
-    <row r="21" spans="2:7" ht="12.75">
-      <c r="B21" s="6"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="11"/>
-    </row>
-    <row r="22" spans="2:7" ht="12.75">
-      <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="11"/>
-    </row>
-    <row r="23" spans="2:7" ht="12.75">
-      <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="11"/>
-    </row>
-    <row r="24" spans="2:7" ht="12.75">
-      <c r="B24" s="6"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="11"/>
-    </row>
-    <row r="25" spans="2:7" ht="12.75">
-      <c r="B25" s="6"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="11"/>
-    </row>
-    <row r="26" spans="2:7" ht="12.75">
-      <c r="B26" s="6"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="11"/>
-    </row>
-    <row r="27" spans="2:7" ht="12.75">
-      <c r="B27" s="6"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="11"/>
-    </row>
-    <row r="28" spans="2:7" ht="12.75">
-      <c r="B28" s="6"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="11"/>
-    </row>
-    <row r="29" spans="2:7" ht="12.75">
-      <c r="B29" s="6"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="11"/>
-    </row>
-    <row r="30" spans="2:7" ht="12.75">
-      <c r="B30" s="6"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="11"/>
-    </row>
-    <row r="31" spans="2:7" ht="12.75">
-      <c r="B31" s="6"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="11"/>
-    </row>
-    <row r="32" spans="2:7" ht="12.75">
-      <c r="B32" s="6"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="11"/>
-    </row>
-    <row r="33" spans="2:7" ht="12.75">
-      <c r="B33" s="6"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="11"/>
-    </row>
+      <c r="C36" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E36" s="13"/>
+      <c r="F36" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="6">
+        <v>32</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E37" s="13"/>
+      <c r="F37" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="6"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="10"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="6"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="10"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="6"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="10"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="6"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="10"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="6"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="10"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="6"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="10"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="6"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="10"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="6"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="10"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="6"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="10"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="6"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="10"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="6"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="10"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="6"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="10"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="6"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="10"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F9" r:id="rId1" display="mailto:contato@animallemundopet.com.br"/>
+    <hyperlink ref="E8" r:id="rId1" display="mailto:contato@animallemundopet.com.br"/>
+    <hyperlink ref="E14" r:id="rId2"/>
+    <hyperlink ref="E15" r:id="rId3"/>
+    <hyperlink ref="E16" r:id="rId4"/>
+    <hyperlink ref="E17" r:id="rId5"/>
+    <hyperlink ref="E18" r:id="rId6"/>
+    <hyperlink ref="E22" r:id="rId7"/>
+    <hyperlink ref="E23" r:id="rId8"/>
+    <hyperlink ref="E24" r:id="rId9"/>
+    <hyperlink ref="E25" r:id="rId10"/>
+    <hyperlink ref="E26" r:id="rId11"/>
+    <hyperlink ref="E33" r:id="rId12"/>
+    <hyperlink ref="E34" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="50" fitToHeight="0" orientation="landscape" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="50" fitToHeight="0" orientation="landscape" r:id="rId14"/>
   <headerFooter differentFirst="1">
     <oddFooter>Página &amp;P de &amp;N</oddFooter>
   </headerFooter>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId15"/>
   </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 

--- a/Clientes.xlsx
+++ b/Clientes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Clientes Belo Horizonte Online" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="116">
   <si>
     <t>Código do Cliente</t>
   </si>
@@ -562,39 +562,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF002060"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_)@"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <font>
         <b val="0"/>
@@ -613,6 +581,38 @@
       </font>
       <numFmt numFmtId="164" formatCode="_)@"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF002060"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_)@"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -658,6 +658,120 @@
         </top>
         <bottom style="thin">
           <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="1" tint="0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.24994659260841701"/>
         </bottom>
       </border>
     </dxf>
@@ -684,6 +798,138 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="1" tint="0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.24994659260841701"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_)@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF002060"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_)@"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
         <sz val="10"/>
         <color auto="1"/>
         <name val="Arial"/>
@@ -786,6 +1032,18 @@
           <color theme="1" tint="0.24994659260841701"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -863,10 +1121,10 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Customer Contact List" defaultPivotStyle="PivotStyleLight2">
     <tableStyle name="Customer Contact List" pivot="0" count="4">
-      <tableStyleElement type="wholeTable" dxfId="12"/>
-      <tableStyleElement type="headerRow" dxfId="11"/>
-      <tableStyleElement type="firstRowStripe" dxfId="10"/>
-      <tableStyleElement type="secondRowStripe" dxfId="9"/>
+      <tableStyleElement type="wholeTable" dxfId="21"/>
+      <tableStyleElement type="headerRow" dxfId="20"/>
+      <tableStyleElement type="firstRowStripe" dxfId="19"/>
+      <tableStyleElement type="secondRowStripe" dxfId="18"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -881,15 +1139,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="tblCustomerContacts" displayName="tblCustomerContacts" ref="A5:F50" totalsRowShown="0" headerRowDxfId="8" dataDxfId="3" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="tblCustomerContacts" displayName="tblCustomerContacts" ref="A5:F50" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" tableBorderDxfId="15">
   <autoFilter ref="A5:F50"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Código do Cliente" dataDxfId="6"/>
-    <tableColumn id="2" name="Nome da Empresa" dataDxfId="5"/>
-    <tableColumn id="4" name="Endereço" dataDxfId="4"/>
+    <tableColumn id="1" name="Código do Cliente" dataDxfId="14"/>
+    <tableColumn id="2" name="Nome da Empresa" dataDxfId="13"/>
+    <tableColumn id="4" name="Endereço" dataDxfId="12"/>
+    <tableColumn id="10" name="Número de Telefone" dataDxfId="11"/>
+    <tableColumn id="12" name="Email" dataDxfId="10"/>
+    <tableColumn id="13" name="Nicho" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="Customer Contact List" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="tblCustomerContacts5" displayName="tblCustomerContacts5" ref="A5:F50" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" tableBorderDxfId="6">
+  <autoFilter ref="A5:F50"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Código do Cliente" dataDxfId="5"/>
+    <tableColumn id="2" name="Nome da Empresa" dataDxfId="4"/>
+    <tableColumn id="4" name="Endereço" dataDxfId="3"/>
     <tableColumn id="10" name="Número de Telefone" dataDxfId="2"/>
-    <tableColumn id="12" name="Email" dataDxfId="0"/>
-    <tableColumn id="13" name="Nicho" dataDxfId="1"/>
+    <tableColumn id="12" name="Email" dataDxfId="1"/>
+    <tableColumn id="13" name="Nicho" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Customer Contact List" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1128,13 +1401,13 @@
   </sheetPr>
   <dimension ref="A1:G156"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView showGridLines="0" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
     <col min="2" max="2" width="30.42578125" customWidth="1"/>
     <col min="3" max="3" width="58.42578125" customWidth="1"/>
     <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
@@ -2028,13 +2301,428 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:F50"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" customWidth="1"/>
+    <col min="3" max="3" width="58.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="5" max="5" width="37.28515625" customWidth="1"/>
+    <col min="6" max="6" width="51.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="6"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="6"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="6"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="6"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="10"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="6"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="6"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="10"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="6"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="10"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="6"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="6"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="10"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="6"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="10"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="6"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="10"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="6"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="10"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="6"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="10"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="6"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="10"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="6"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="10"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="6"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="10"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="6"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="10"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="6"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="10"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="6"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="10"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="6"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="10"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="6"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="10"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/Clientes.xlsx
+++ b/Clientes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="Clientes Belo Horizonte Online" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="207">
   <si>
     <t>Código do Cliente</t>
   </si>
@@ -372,6 +372,279 @@
   </si>
   <si>
     <t>Cachorro e Pássaros</t>
+  </si>
+  <si>
+    <t>Clínica Veterinária Marco Antônio</t>
+  </si>
+  <si>
+    <t>R. Itajuba, 654 - Floresta</t>
+  </si>
+  <si>
+    <t>(31) 3423-0128</t>
+  </si>
+  <si>
+    <t>contato@veterinariamarcoantonio.com.br</t>
+  </si>
+  <si>
+    <t>Giselle C. Silva</t>
+  </si>
+  <si>
+    <t>R. Campos Sales, 832 - Gameleira</t>
+  </si>
+  <si>
+    <t>(31) 3371-2598</t>
+  </si>
+  <si>
+    <t>Pet Shop</t>
+  </si>
+  <si>
+    <t>Dog City</t>
+  </si>
+  <si>
+    <t>R. Pedra Bonita, 935 - Barroca</t>
+  </si>
+  <si>
+    <t>(31) 3372-3972</t>
+  </si>
+  <si>
+    <t>contato@dogcityvet.com.br</t>
+  </si>
+  <si>
+    <t>Kollym Pet Shop Boutique</t>
+  </si>
+  <si>
+    <t>Av. Ressaca, 118 Loja 6 - Coração Eucaristico</t>
+  </si>
+  <si>
+    <t>(31) 3412-8704</t>
+  </si>
+  <si>
+    <t>Nikita Pet e Flores</t>
+  </si>
+  <si>
+    <t>R. Coronel Jose Benjamin, 967 - Padre Eustaquio</t>
+  </si>
+  <si>
+    <t>(31) 3464-3016</t>
+  </si>
+  <si>
+    <t>Pet Pampulha</t>
+  </si>
+  <si>
+    <t>Av. Portugal, 2453 - Santa Amelia</t>
+  </si>
+  <si>
+    <t>(31) 3441-7830</t>
+  </si>
+  <si>
+    <t>Bicho Sapeca</t>
+  </si>
+  <si>
+    <t>R. Cuiabá, 186 - Prado</t>
+  </si>
+  <si>
+    <t>(31) 3371-3177</t>
+  </si>
+  <si>
+    <t>Espaço Pet Bh</t>
+  </si>
+  <si>
+    <t>Av. José Cândido da Silveira, 571 - Cidade Nova</t>
+  </si>
+  <si>
+    <t>(31) 2512-0011</t>
+  </si>
+  <si>
+    <t>Dog Clean</t>
+  </si>
+  <si>
+    <t>R. S. Gonçalo, 976 - Das Graças</t>
+  </si>
+  <si>
+    <t>Bichos da Serra</t>
+  </si>
+  <si>
+    <t>R. do Ouro, 272 - Serra</t>
+  </si>
+  <si>
+    <t>(31) 3264-9876</t>
+  </si>
+  <si>
+    <t>Bernis e Melo Com. de Ração e Pet shop</t>
+  </si>
+  <si>
+    <t>Pet It Shop</t>
+  </si>
+  <si>
+    <t>Av. Carandaí, 178 Loja 1 - Funcionários</t>
+  </si>
+  <si>
+    <t>(31) 3024-0434</t>
+  </si>
+  <si>
+    <t>Cão Bom Pet Shop</t>
+  </si>
+  <si>
+    <t>R. Porto Seguro, 589 - Nova Vista</t>
+  </si>
+  <si>
+    <t>(31) 3485-8386</t>
+  </si>
+  <si>
+    <t>Lat &amp; Mia</t>
+  </si>
+  <si>
+    <t>R. Serro, 315 - Bonfim</t>
+  </si>
+  <si>
+    <t>(31) 3422-4692</t>
+  </si>
+  <si>
+    <t>Banho e Tosa Cão Bonito</t>
+  </si>
+  <si>
+    <t>R. Araguari, 1370 - Barro Preto</t>
+  </si>
+  <si>
+    <t>(31) 9171-1289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bicho Fino </t>
+  </si>
+  <si>
+    <t>R. Desembargador Cintra Neto, 420 - Milionários</t>
+  </si>
+  <si>
+    <t>(31) 3321-8086</t>
+  </si>
+  <si>
+    <t>Rei do Cachorro</t>
+  </si>
+  <si>
+    <t>Av. Augusto de Lima, 744 - Centro</t>
+  </si>
+  <si>
+    <t>(31) 8735-3012</t>
+  </si>
+  <si>
+    <t>Pet Shop Doçura</t>
+  </si>
+  <si>
+    <t>R. Dr. Plinio Moraes, 468 - Cidade Nova</t>
+  </si>
+  <si>
+    <t>(31) 3484-6880</t>
+  </si>
+  <si>
+    <t>Pop Dog</t>
+  </si>
+  <si>
+    <t>R. Salinas,1815 - Floresta</t>
+  </si>
+  <si>
+    <t>(31) 2555-2197</t>
+  </si>
+  <si>
+    <t>Atelier do Cão</t>
+  </si>
+  <si>
+    <t>R. Santa Catarina, 1141 - Floresta</t>
+  </si>
+  <si>
+    <t>(31) 3337-9467</t>
+  </si>
+  <si>
+    <t>Mania de Cão</t>
+  </si>
+  <si>
+    <t>R. dos Timbiras, 2250 Sala 101 - Santo Agostinho</t>
+  </si>
+  <si>
+    <t>(31) 3292-3592</t>
+  </si>
+  <si>
+    <t>Mundo dos Bichos</t>
+  </si>
+  <si>
+    <t>R. Bernardo Guimarães, 1873  - Lourdes</t>
+  </si>
+  <si>
+    <t>(31) 3291-1605</t>
+  </si>
+  <si>
+    <t>Pet Hotel &amp; Day Care Pet Creche</t>
+  </si>
+  <si>
+    <t>R. Marilio Gomes Silveira, 1014 - Milionários</t>
+  </si>
+  <si>
+    <t>(31) 3234-5991</t>
+  </si>
+  <si>
+    <t>Cantinho dos Animais</t>
+  </si>
+  <si>
+    <t>R. Santa Catarina, 201 Loja 601 - Centro</t>
+  </si>
+  <si>
+    <t>(31) 3274-9397</t>
+  </si>
+  <si>
+    <t>Mascote Veterinária</t>
+  </si>
+  <si>
+    <t>R. Professor Pimenta Veiga, 531 - Cidade Nova</t>
+  </si>
+  <si>
+    <t>(31) 3484-1211</t>
+  </si>
+  <si>
+    <t>Veterinário</t>
+  </si>
+  <si>
+    <t>O Ponto da Ração</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Av. Edgard Torres, 720 - Minas Caixa </t>
+  </si>
+  <si>
+    <t>(31) 3455-6892</t>
+  </si>
+  <si>
+    <t>Meu Amigo Fiel</t>
+  </si>
+  <si>
+    <t>Av. Augusto dos Anjos, 208 - Santa Mônica</t>
+  </si>
+  <si>
+    <t>(31) 3452-7450</t>
+  </si>
+  <si>
+    <t>Sagradog</t>
+  </si>
+  <si>
+    <t>R. João Gualberto Filho, 196 Loja 10 - Sagrada Família</t>
+  </si>
+  <si>
+    <t>(31) 3463-9787</t>
+  </si>
+  <si>
+    <t>Exotic Pet Show</t>
+  </si>
+  <si>
+    <t>R. S. Joaquim, 516 - Sagrada Família</t>
+  </si>
+  <si>
+    <t>(31) 2531-1598</t>
+  </si>
+  <si>
+    <t>Dog House</t>
+  </si>
+  <si>
+    <t>R. Euclasio, 669 - Paraiso</t>
+  </si>
+  <si>
+    <t>(31) 3283-2365</t>
   </si>
 </sst>
 </file>
@@ -1401,8 +1674,8 @@
   </sheetPr>
   <dimension ref="A1:G156"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1411,7 +1684,7 @@
     <col min="2" max="2" width="30.42578125" customWidth="1"/>
     <col min="3" max="3" width="58.42578125" customWidth="1"/>
     <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.28515625" customWidth="1"/>
+    <col min="5" max="5" width="39.5703125" customWidth="1"/>
     <col min="6" max="6" width="51.85546875" customWidth="1"/>
     <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
@@ -1686,7 +1959,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>13</v>
       </c>
@@ -1706,7 +1979,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>14</v>
       </c>
@@ -2063,20 +2336,44 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="6"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="10"/>
+      <c r="A38" s="6">
+        <v>33</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="6"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="10"/>
+      <c r="A39" s="6">
+        <v>34</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
@@ -2287,14 +2584,16 @@
     <hyperlink ref="E26" r:id="rId11"/>
     <hyperlink ref="E33" r:id="rId12"/>
     <hyperlink ref="E34" r:id="rId13"/>
+    <hyperlink ref="E38" r:id="rId14"/>
+    <hyperlink ref="E39" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="50" fitToHeight="0" orientation="landscape" r:id="rId14"/>
+  <pageSetup paperSize="9" scale="50" fitToHeight="0" orientation="landscape" r:id="rId16"/>
   <headerFooter differentFirst="1">
     <oddFooter>Página &amp;P de &amp;N</oddFooter>
   </headerFooter>
   <tableParts count="1">
-    <tablePart r:id="rId15"/>
+    <tablePart r:id="rId17"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2303,14 +2602,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:F50"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" customWidth="1"/>
     <col min="3" max="3" width="58.42578125" customWidth="1"/>
     <col min="4" max="4" width="22.42578125" customWidth="1"/>
     <col min="5" max="5" width="37.28515625" customWidth="1"/>
@@ -2359,228 +2658,508 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
+      <c r="A6" s="6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>122</v>
+      </c>
       <c r="E6" s="11"/>
-      <c r="F6" s="10"/>
+      <c r="F6" s="10" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
+      <c r="A7" s="6">
+        <v>2</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>130</v>
+      </c>
       <c r="E7" s="11"/>
-      <c r="F7" s="10"/>
+      <c r="F7" s="10" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
+      <c r="A8" s="6">
+        <v>3</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>133</v>
+      </c>
       <c r="E8" s="12"/>
-      <c r="F8" s="10"/>
+      <c r="F8" s="10" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
+      <c r="A9" s="6">
+        <v>4</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>136</v>
+      </c>
       <c r="E9" s="13"/>
-      <c r="F9" s="10"/>
+      <c r="F9" s="10" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
+      <c r="A10" s="6">
+        <v>5</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>139</v>
+      </c>
       <c r="E10" s="13"/>
-      <c r="F10" s="10"/>
+      <c r="F10" s="10" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
+      <c r="A11" s="6">
+        <v>6</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>142</v>
+      </c>
       <c r="E11" s="13"/>
-      <c r="F11" s="10"/>
+      <c r="F11" s="10" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="9"/>
+      <c r="A12" s="6">
+        <v>7</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>98</v>
+      </c>
       <c r="E12" s="13"/>
-      <c r="F12" s="10"/>
+      <c r="F12" s="10" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
+      <c r="A13" s="6">
+        <v>8</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>147</v>
+      </c>
       <c r="E13" s="13"/>
-      <c r="F13" s="10"/>
+      <c r="F13" s="10" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
+      <c r="A14" s="6">
+        <v>9</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="E14" s="11"/>
-      <c r="F14" s="10"/>
+      <c r="F14" s="10" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
+      <c r="A15" s="6">
+        <v>10</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>151</v>
+      </c>
       <c r="E15" s="11"/>
-      <c r="F15" s="10"/>
+      <c r="F15" s="10" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
+      <c r="A16" s="6">
+        <v>11</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>154</v>
+      </c>
       <c r="E16" s="11"/>
-      <c r="F16" s="10"/>
+      <c r="F16" s="10" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
+      <c r="A17" s="6">
+        <v>12</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>157</v>
+      </c>
       <c r="E17" s="11"/>
-      <c r="F17" s="10"/>
+      <c r="F17" s="10" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
+      <c r="A18" s="6">
+        <v>13</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>160</v>
+      </c>
       <c r="E18" s="11"/>
-      <c r="F18" s="10"/>
+      <c r="F18" s="10" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
+      <c r="A19" s="6">
+        <v>14</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>163</v>
+      </c>
       <c r="E19" s="13"/>
-      <c r="F19" s="10"/>
+      <c r="F19" s="10" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
+      <c r="A20" s="6">
+        <v>15</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>166</v>
+      </c>
       <c r="E20" s="13"/>
-      <c r="F20" s="10"/>
+      <c r="F20" s="10" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
+      <c r="A21" s="6">
+        <v>16</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>169</v>
+      </c>
       <c r="E21" s="13"/>
-      <c r="F21" s="10"/>
+      <c r="F21" s="10" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
+      <c r="A22" s="6">
+        <v>17</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>172</v>
+      </c>
       <c r="E22" s="11"/>
-      <c r="F22" s="10"/>
+      <c r="F22" s="10" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
+      <c r="A23" s="6">
+        <v>18</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>175</v>
+      </c>
       <c r="E23" s="11"/>
-      <c r="F23" s="10"/>
+      <c r="F23" s="10" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="24" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="9"/>
+      <c r="A24" s="6">
+        <v>19</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>178</v>
+      </c>
       <c r="E24" s="11"/>
-      <c r="F24" s="10"/>
+      <c r="F24" s="10" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="25" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9"/>
+      <c r="A25" s="6">
+        <v>20</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>181</v>
+      </c>
       <c r="E25" s="11"/>
-      <c r="F25" s="10"/>
+      <c r="F25" s="10" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="26" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9"/>
+      <c r="A26" s="6">
+        <v>21</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>184</v>
+      </c>
       <c r="E26" s="11"/>
-      <c r="F26" s="10"/>
+      <c r="F26" s="10" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="27" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="9"/>
+      <c r="A27" s="6">
+        <v>22</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>187</v>
+      </c>
       <c r="E27" s="13"/>
-      <c r="F27" s="10"/>
+      <c r="F27" s="10" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="28" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="9"/>
+      <c r="A28" s="6">
+        <v>23</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>190</v>
+      </c>
       <c r="E28" s="13"/>
-      <c r="F28" s="10"/>
+      <c r="F28" s="10" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="29" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="6"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="9"/>
+      <c r="A29" s="6">
+        <v>24</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>194</v>
+      </c>
       <c r="E29" s="13"/>
-      <c r="F29" s="10"/>
+      <c r="F29" s="10" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="30" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9"/>
+      <c r="A30" s="6">
+        <v>25</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>197</v>
+      </c>
       <c r="E30" s="13"/>
-      <c r="F30" s="10"/>
+      <c r="F30" s="10" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="6"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="9"/>
+      <c r="A31" s="6">
+        <v>26</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>200</v>
+      </c>
       <c r="E31" s="13"/>
-      <c r="F31" s="10"/>
+      <c r="F31" s="10" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="6"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="9"/>
+      <c r="A32" s="6">
+        <v>27</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>203</v>
+      </c>
       <c r="E32" s="13"/>
-      <c r="F32" s="10"/>
+      <c r="F32" s="10" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="6"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="9"/>
+      <c r="A33" s="6">
+        <v>28</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>206</v>
+      </c>
       <c r="E33" s="14"/>
-      <c r="F33" s="10"/>
+      <c r="F33" s="10" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>

--- a/Clientes.xlsx
+++ b/Clientes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="232">
   <si>
     <t>Código do Cliente</t>
   </si>
@@ -629,15 +629,6 @@
     <t>(31) 3463-9787</t>
   </si>
   <si>
-    <t>Exotic Pet Show</t>
-  </si>
-  <si>
-    <t>R. S. Joaquim, 516 - Sagrada Família</t>
-  </si>
-  <si>
-    <t>(31) 2531-1598</t>
-  </si>
-  <si>
     <t>Dog House</t>
   </si>
   <si>
@@ -645,6 +636,90 @@
   </si>
   <si>
     <t>(31) 3283-2365</t>
+  </si>
+  <si>
+    <t>Taxi Dog</t>
+  </si>
+  <si>
+    <t>R. Meca, 113 - Betania</t>
+  </si>
+  <si>
+    <t>(31) 3383-2566</t>
+  </si>
+  <si>
+    <t>Animal Care</t>
+  </si>
+  <si>
+    <t>Av. Brigadeiro Eduardo Gomes, 1143 - Glória</t>
+  </si>
+  <si>
+    <t>(31) 3471-6767</t>
+  </si>
+  <si>
+    <t>Pet Shop Professor Israel</t>
+  </si>
+  <si>
+    <t>R. Viçosa, 31 - São Pedro</t>
+  </si>
+  <si>
+    <t>(31) 3317-7821</t>
+  </si>
+  <si>
+    <t>Paraíso dos Animais</t>
+  </si>
+  <si>
+    <t>R. Br Monte Alto, 713 - Urucuia</t>
+  </si>
+  <si>
+    <t>(31) 3381-3708</t>
+  </si>
+  <si>
+    <t>Pet Shop Show</t>
+  </si>
+  <si>
+    <t>Av. Afonso Pena, 1170 Loja 214 - Centro</t>
+  </si>
+  <si>
+    <t>(31) 8568-0394</t>
+  </si>
+  <si>
+    <t>Pet Shop Pica Pau</t>
+  </si>
+  <si>
+    <t>Av. Mem Sá, 787 - Santa Efigenia</t>
+  </si>
+  <si>
+    <t>(31) 3327-7192</t>
+  </si>
+  <si>
+    <t>Pet Marty</t>
+  </si>
+  <si>
+    <t>R. São Sebastião do Paraiso, 174 - Itapoã</t>
+  </si>
+  <si>
+    <t>(31) 3643-6656</t>
+  </si>
+  <si>
+    <t>A Arca dos Bichos</t>
+  </si>
+  <si>
+    <t>Av. Gen. Carlos Guedes, 498 - Pampulha</t>
+  </si>
+  <si>
+    <t>(31) 3495-6055</t>
+  </si>
+  <si>
+    <t>Anjos de Patas</t>
+  </si>
+  <si>
+    <t>R. Artur Lima de Azevedo, 105 - Planalto</t>
+  </si>
+  <si>
+    <t>(31) 3450-4777</t>
+  </si>
+  <si>
+    <t>anjosdepatasbh@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1674,8 +1749,8 @@
   </sheetPr>
   <dimension ref="A1:G156"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2376,12 +2451,24 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="6"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="10"/>
+      <c r="A40" s="6">
+        <v>35</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
@@ -2586,14 +2673,15 @@
     <hyperlink ref="E34" r:id="rId13"/>
     <hyperlink ref="E38" r:id="rId14"/>
     <hyperlink ref="E39" r:id="rId15"/>
+    <hyperlink ref="E40" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="50" fitToHeight="0" orientation="landscape" r:id="rId16"/>
+  <pageSetup paperSize="9" scale="50" fitToHeight="0" orientation="landscape" r:id="rId17"/>
   <headerFooter differentFirst="1">
     <oddFooter>Página &amp;P de &amp;N</oddFooter>
   </headerFooter>
   <tableParts count="1">
-    <tablePart r:id="rId17"/>
+    <tablePart r:id="rId18"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2602,8 +2690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3130,13 +3218,13 @@
         <v>27</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E32" s="13"/>
       <c r="F32" s="10" t="s">
@@ -3148,13 +3236,13 @@
         <v>28</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E33" s="14"/>
       <c r="F33" s="10" t="s">
@@ -3162,60 +3250,130 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="6"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="9"/>
+      <c r="A34" s="6">
+        <v>29</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>209</v>
+      </c>
       <c r="E34" s="14"/>
-      <c r="F34" s="10"/>
+      <c r="F34" s="10" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="6"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="9"/>
+      <c r="A35" s="6">
+        <v>30</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>212</v>
+      </c>
       <c r="E35" s="13"/>
-      <c r="F35" s="10"/>
+      <c r="F35" s="10" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="6"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="9"/>
+      <c r="A36" s="6">
+        <v>31</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>215</v>
+      </c>
       <c r="E36" s="13"/>
-      <c r="F36" s="10"/>
+      <c r="F36" s="10" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="6"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="9"/>
+      <c r="A37" s="6">
+        <v>32</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>218</v>
+      </c>
       <c r="E37" s="13"/>
-      <c r="F37" s="10"/>
+      <c r="F37" s="10" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="6"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="9"/>
+      <c r="A38" s="6">
+        <v>33</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>221</v>
+      </c>
       <c r="E38" s="13"/>
-      <c r="F38" s="10"/>
+      <c r="F38" s="10" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="6"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="9"/>
+      <c r="A39" s="6">
+        <v>34</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>224</v>
+      </c>
       <c r="E39" s="13"/>
-      <c r="F39" s="10"/>
+      <c r="F39" s="10" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="6"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="9"/>
+      <c r="A40" s="6">
+        <v>35</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>227</v>
+      </c>
       <c r="E40" s="13"/>
-      <c r="F40" s="10"/>
+      <c r="F40" s="10" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>

--- a/Clientes.xlsx
+++ b/Clientes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="242">
   <si>
     <t>Código do Cliente</t>
   </si>
@@ -720,6 +720,36 @@
   </si>
   <si>
     <t>anjosdepatasbh@gmail.com</t>
+  </si>
+  <si>
+    <t>Happy Dog</t>
+  </si>
+  <si>
+    <t>Av. Francisco Sá, 731 - Gutierrez</t>
+  </si>
+  <si>
+    <t>(31) 3292-4727</t>
+  </si>
+  <si>
+    <t>Clínica Veterinária Gutierrez</t>
+  </si>
+  <si>
+    <t>(31) 3292-2858</t>
+  </si>
+  <si>
+    <t>Rua Almirante Alexandrino, 10 - Gutierrez</t>
+  </si>
+  <si>
+    <t>Santo Agostinho Hospital Veterinário</t>
+  </si>
+  <si>
+    <t>Av. Amazonas, 2218 - Santo Agostinho</t>
+  </si>
+  <si>
+    <t>(31) 3337-2026</t>
+  </si>
+  <si>
+    <t>contato@sahv.com.br</t>
   </si>
 </sst>
 </file>
@@ -730,7 +760,7 @@
     <numFmt numFmtId="164" formatCode="_)@"/>
     <numFmt numFmtId="165" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -805,6 +835,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -868,7 +912,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -900,6 +944,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Hiperlink" xfId="2" builtinId="8" hidden="1" customBuiltin="1"/>
@@ -1749,14 +1795,14 @@
   </sheetPr>
   <dimension ref="A1:G156"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1"/>
     <col min="3" max="3" width="58.42578125" customWidth="1"/>
     <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39.5703125" customWidth="1"/>
@@ -2471,20 +2517,42 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="6"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="9"/>
+      <c r="A41" s="6">
+        <v>36</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>236</v>
+      </c>
       <c r="E41" s="13"/>
-      <c r="F41" s="10"/>
+      <c r="F41" s="10" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="6"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="10"/>
+      <c r="A42" s="6">
+        <v>37</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
@@ -2674,14 +2742,15 @@
     <hyperlink ref="E38" r:id="rId14"/>
     <hyperlink ref="E39" r:id="rId15"/>
     <hyperlink ref="E40" r:id="rId16"/>
+    <hyperlink ref="E42" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="50" fitToHeight="0" orientation="landscape" r:id="rId17"/>
+  <pageSetup paperSize="9" scale="50" fitToHeight="0" orientation="landscape" r:id="rId18"/>
   <headerFooter differentFirst="1">
     <oddFooter>Página &amp;P de &amp;N</oddFooter>
   </headerFooter>
   <tableParts count="1">
-    <tablePart r:id="rId18"/>
+    <tablePart r:id="rId19"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2690,8 +2759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3376,10 +3445,18 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="6"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="9"/>
+      <c r="A41" s="6">
+        <v>36</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>234</v>
+      </c>
       <c r="E41" s="13"/>
       <c r="F41" s="10"/>
     </row>

--- a/Clientes.xlsx
+++ b/Clientes.xlsx
@@ -20,11 +20,12 @@
     <definedName name="lstCustomers">'Clientes Belo Horizonte Online'!$B$6:$B$50</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="267">
   <si>
     <t>Código do Cliente</t>
   </si>
@@ -750,6 +751,81 @@
   </si>
   <si>
     <t>contato@sahv.com.br</t>
+  </si>
+  <si>
+    <t>Assosiação Bichos Gerais</t>
+  </si>
+  <si>
+    <t>R. Pitangui, 3556 - Horto</t>
+  </si>
+  <si>
+    <t>(31) 3481-1968</t>
+  </si>
+  <si>
+    <t>Sociedade Protetora dos Animais</t>
+  </si>
+  <si>
+    <t>www.sociedadeprotetoradosanimaisbh.org</t>
+  </si>
+  <si>
+    <t>Adoção Bh</t>
+  </si>
+  <si>
+    <t>(31) 3081-0833</t>
+  </si>
+  <si>
+    <t>adoçãobh@gmail.com</t>
+  </si>
+  <si>
+    <t>Adote um Amigo</t>
+  </si>
+  <si>
+    <t>(31) 2535-2517</t>
+  </si>
+  <si>
+    <t>adote1amigobh@gmail.com</t>
+  </si>
+  <si>
+    <t>Asas e Amigos</t>
+  </si>
+  <si>
+    <t>(31) 9331-2126</t>
+  </si>
+  <si>
+    <t>asaseamigos@hotmail.com</t>
+  </si>
+  <si>
+    <t>Animais em geral</t>
+  </si>
+  <si>
+    <t>Território dos Bichos</t>
+  </si>
+  <si>
+    <t>(31) 3372-2597</t>
+  </si>
+  <si>
+    <t>Organização não Governamental</t>
+  </si>
+  <si>
+    <t>R. Turmalina, 566 - Prado</t>
+  </si>
+  <si>
+    <t>Animaisos Ong</t>
+  </si>
+  <si>
+    <t>www.animaisos.org</t>
+  </si>
+  <si>
+    <t>Cão Viver</t>
+  </si>
+  <si>
+    <t>R. 1º de Maio, nº 165 - Braunas</t>
+  </si>
+  <si>
+    <t>www.caoviver.com.br</t>
+  </si>
+  <si>
+    <t>Bast Adotar</t>
   </si>
 </sst>
 </file>
@@ -912,7 +988,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -946,6 +1022,7 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Hiperlink" xfId="2" builtinId="8" hidden="1" customBuiltin="1"/>
@@ -1795,17 +1872,17 @@
   </sheetPr>
   <dimension ref="A1:G156"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="2" max="2" width="32.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
     <col min="3" max="3" width="58.42578125" customWidth="1"/>
     <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.5703125" customWidth="1"/>
+    <col min="5" max="5" width="41.28515625" customWidth="1"/>
     <col min="6" max="6" width="51.85546875" customWidth="1"/>
     <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
@@ -2555,56 +2632,116 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="6"/>
-      <c r="B43" s="7"/>
+      <c r="A43" s="6">
+        <v>38</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>245</v>
+      </c>
       <c r="C43" s="8"/>
       <c r="D43" s="9"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="10"/>
+      <c r="E43" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="6"/>
-      <c r="B44" s="7"/>
+      <c r="A44" s="6">
+        <v>39</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>247</v>
+      </c>
       <c r="C44" s="8"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="10"/>
+      <c r="D44" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="6"/>
-      <c r="B45" s="7"/>
+      <c r="A45" s="6">
+        <v>40</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>250</v>
+      </c>
       <c r="C45" s="8"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="10"/>
+      <c r="D45" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="6"/>
-      <c r="B46" s="7"/>
+      <c r="A46" s="6">
+        <v>41</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>253</v>
+      </c>
       <c r="C46" s="8"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="10"/>
+      <c r="D46" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="6"/>
-      <c r="B47" s="7"/>
+      <c r="A47" s="6">
+        <v>42</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>261</v>
+      </c>
       <c r="C47" s="8"/>
       <c r="D47" s="9"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="10"/>
+      <c r="E47" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="6"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="8"/>
+      <c r="A48" s="6">
+        <v>43</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>264</v>
+      </c>
       <c r="D48" s="9"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="10"/>
+      <c r="E48" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="6"/>
-      <c r="B49" s="7"/>
+      <c r="A49" s="6">
+        <v>44</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>266</v>
+      </c>
       <c r="C49" s="8"/>
       <c r="D49" s="9"/>
       <c r="E49" s="13"/>
@@ -2743,14 +2880,20 @@
     <hyperlink ref="E39" r:id="rId15"/>
     <hyperlink ref="E40" r:id="rId16"/>
     <hyperlink ref="E42" r:id="rId17"/>
+    <hyperlink ref="E43" r:id="rId18"/>
+    <hyperlink ref="E44" r:id="rId19"/>
+    <hyperlink ref="E45" r:id="rId20"/>
+    <hyperlink ref="E46" r:id="rId21"/>
+    <hyperlink ref="E47" r:id="rId22"/>
+    <hyperlink ref="E48" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="50" fitToHeight="0" orientation="landscape" r:id="rId18"/>
+  <pageSetup paperSize="9" scale="50" fitToHeight="0" orientation="landscape" r:id="rId24"/>
   <headerFooter differentFirst="1">
     <oddFooter>Página &amp;P de &amp;N</oddFooter>
   </headerFooter>
   <tableParts count="1">
-    <tablePart r:id="rId19"/>
+    <tablePart r:id="rId25"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2759,8 +2902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2829,7 +2972,7 @@
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="10" t="s">
-        <v>123</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3458,23 +3601,45 @@
         <v>234</v>
       </c>
       <c r="E41" s="13"/>
-      <c r="F41" s="10"/>
+      <c r="F41" s="10" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="6"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="9"/>
+      <c r="A42" s="6">
+        <v>37</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>244</v>
+      </c>
       <c r="E42" s="13"/>
-      <c r="F42" s="10"/>
+      <c r="F42" s="10" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="6"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="9"/>
+      <c r="A43" s="6">
+        <v>38</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>258</v>
+      </c>
       <c r="E43" s="13"/>
-      <c r="F43" s="10"/>
+      <c r="F43" s="10" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
